--- a/2024-02-16_The_Davey_RR.xlsx
+++ b/2024-02-16_The_Davey_RR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8c183bc34e1939c/Projects/Hack-a-mission/Ready - Scrubbed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{24CF42BF-63AE-43A3-862F-F444C695D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98DFA414-0824-4CD9-83AD-6E7D8C9E9566}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{24CF42BF-63AE-43A3-862F-F444C695D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B178132-D0C1-40DB-97DA-99B60C2CD481}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="762" xr2:uid="{908AE02C-7830-4EE3-9F47-FD686BE0A464}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Rent Roll As Of Date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Required. Enter property address, use two letter code for state.</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -731,8 +734,8 @@
   <dimension ref="A4:AU1010"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <pane ySplit="10" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2390,8 +2393,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7">
-        <v>49</v>
+      <c r="A56" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B56" s="7">
         <v>1</v>
